--- a/Data/Participant Characteristics.xlsx
+++ b/Data/Participant Characteristics.xlsx
@@ -9,13 +9,13 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="377" yWindow="463" windowWidth="28037" windowHeight="17040"/>
+    <workbookView xWindow="375" yWindow="465" windowWidth="28035" windowHeight="17040"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$B$1:$I$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$B$1:$G$1</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -33,10 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="33">
-  <si>
-    <t>Participant</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="12">
   <si>
     <t>Gender</t>
   </si>
@@ -44,82 +41,13 @@
     <t>Age</t>
   </si>
   <si>
-    <t>Field of Study</t>
-  </si>
-  <si>
     <t>Date of Birth</t>
-  </si>
-  <si>
-    <t>Yes</t>
   </si>
   <si>
     <t>female</t>
   </si>
   <si>
     <t>male</t>
-  </si>
-  <si>
-    <t>MSc ME</t>
-  </si>
-  <si>
-    <t>BSc RW</t>
-  </si>
-  <si>
-    <t>BSc MSc</t>
-  </si>
-  <si>
-    <t>BSc CSc</t>
-  </si>
-  <si>
-    <t>BSc ME</t>
-  </si>
-  <si>
-    <t>MSc BioE</t>
-  </si>
-  <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>BSc Med</t>
-  </si>
-  <si>
-    <t>MSc B&amp;F</t>
-  </si>
-  <si>
-    <t>Polizei</t>
-  </si>
-  <si>
-    <t>BSc A</t>
-  </si>
-  <si>
-    <t>BEc Hsg</t>
-  </si>
-  <si>
-    <t>BSc ChE</t>
-  </si>
-  <si>
-    <t>MSc Math</t>
-  </si>
-  <si>
-    <t>BSc EE</t>
-  </si>
-  <si>
-    <t>Hebamme</t>
-  </si>
-  <si>
-    <t>Phd Pdz</t>
-  </si>
-  <si>
-    <t>no mistake</t>
-  </si>
-  <si>
-    <t>1 mistake but realized</t>
-  </si>
-  <si>
-    <t>1 mistake order</t>
-  </si>
-  <si>
-    <t>didn't manage</t>
   </si>
   <si>
     <t>BiColor</t>
@@ -131,14 +59,26 @@
     <t>Group</t>
   </si>
   <si>
-    <t>Experience with Lego</t>
+    <t>Mean age all Participants</t>
+  </si>
+  <si>
+    <t>STD age all Participants</t>
+  </si>
+  <si>
+    <t>Participant number</t>
+  </si>
+  <si>
+    <t>Running GroupNumber</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="167" formatCode="0.000"/>
+  </numFmts>
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -154,43 +94,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="12"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="6">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.39997558519241921"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -205,16 +115,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -529,51 +439,48 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S70"/>
+  <dimension ref="A1:F39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G2" sqref="G2"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.85546875" defaultRowHeight="15.9" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="4" max="4" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="12.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>11</v>
+      </c>
       <c r="B1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>2</v>
-      </c>
       <c r="F1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.45">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2" s="5">
+      <c r="B2">
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D2" s="1">
         <v>33605</v>
@@ -582,24 +489,18 @@
         <v>27</v>
       </c>
       <c r="F2" t="s">
-        <v>8</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="H2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.45">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
-      <c r="B3" s="5">
+      <c r="B3">
         <v>2</v>
       </c>
       <c r="C3" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D3" s="1">
         <v>34195</v>
@@ -608,28 +509,18 @@
         <v>26</v>
       </c>
       <c r="F3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H3" t="s">
-        <v>29</v>
-      </c>
-      <c r="R3" s="5"/>
-      <c r="S3" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.45">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
-      <c r="B4" s="6">
+      <c r="B4">
         <v>3</v>
       </c>
       <c r="C4" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D4" s="1">
         <v>33337</v>
@@ -638,28 +529,18 @@
         <v>28</v>
       </c>
       <c r="F4" t="s">
-        <v>12</v>
-      </c>
-      <c r="G4" t="s">
-        <v>5</v>
-      </c>
-      <c r="H4" t="s">
-        <v>29</v>
-      </c>
-      <c r="R4" s="7"/>
-      <c r="S4" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.45">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
-      <c r="B5" s="5">
+      <c r="B5">
         <v>4</v>
       </c>
       <c r="C5" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D5" s="1">
         <v>32653</v>
@@ -668,28 +549,18 @@
         <v>30</v>
       </c>
       <c r="F5" t="s">
-        <v>8</v>
-      </c>
-      <c r="G5" t="s">
-        <v>5</v>
-      </c>
-      <c r="H5" t="s">
-        <v>29</v>
-      </c>
-      <c r="R5" s="6"/>
-      <c r="S5" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.45">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
-      <c r="B6" s="7">
+      <c r="B6">
         <v>5</v>
       </c>
       <c r="C6" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D6" s="1">
         <v>34921</v>
@@ -698,28 +569,18 @@
         <v>24</v>
       </c>
       <c r="F6" t="s">
-        <v>12</v>
-      </c>
-      <c r="G6" t="s">
-        <v>5</v>
-      </c>
-      <c r="H6" t="s">
-        <v>29</v>
-      </c>
-      <c r="R6" s="3"/>
-      <c r="S6" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.45">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
-      <c r="B7" s="3">
+      <c r="B7">
         <v>6</v>
       </c>
       <c r="C7" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D7" s="1">
         <v>34029</v>
@@ -728,24 +589,18 @@
         <v>26</v>
       </c>
       <c r="F7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G7" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="H7" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.45">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
-      <c r="B8" s="5">
+      <c r="B8">
         <v>7</v>
       </c>
       <c r="C8" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D8" s="1">
         <v>35337</v>
@@ -754,24 +609,18 @@
         <v>23</v>
       </c>
       <c r="F8" t="s">
-        <v>8</v>
-      </c>
-      <c r="G8" t="s">
-        <v>5</v>
-      </c>
-      <c r="H8" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.45">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
-      <c r="B9" s="5">
+      <c r="B9">
         <v>8</v>
       </c>
       <c r="C9" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D9" s="1">
         <v>35586</v>
@@ -780,24 +629,18 @@
         <v>22</v>
       </c>
       <c r="F9" t="s">
-        <v>9</v>
-      </c>
-      <c r="G9" t="s">
-        <v>5</v>
-      </c>
-      <c r="H9" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.45">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
-      <c r="B10" s="7">
+      <c r="B10">
         <v>9</v>
       </c>
       <c r="C10" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D10" s="1">
         <v>34647</v>
@@ -806,24 +649,18 @@
         <v>25</v>
       </c>
       <c r="F10" t="s">
-        <v>8</v>
-      </c>
-      <c r="G10" t="s">
-        <v>5</v>
-      </c>
-      <c r="H10" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.45">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
-      <c r="B11" s="3">
+      <c r="B11">
         <v>10</v>
       </c>
       <c r="C11" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D11" s="1">
         <v>36292</v>
@@ -832,24 +669,18 @@
         <v>20</v>
       </c>
       <c r="F11" t="s">
-        <v>20</v>
-      </c>
-      <c r="G11" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="H11" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.45">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
-      <c r="B12" s="8">
+      <c r="B12">
         <v>16</v>
       </c>
       <c r="C12" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D12" s="1">
         <v>35998</v>
@@ -858,24 +689,18 @@
         <v>21</v>
       </c>
       <c r="F12" t="s">
-        <v>15</v>
-      </c>
-      <c r="G12" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="H12" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.45">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
-      <c r="B13" s="6">
+      <c r="B13">
         <v>17</v>
       </c>
       <c r="C13" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D13" s="1">
         <v>34468</v>
@@ -884,24 +709,18 @@
         <v>25</v>
       </c>
       <c r="F13" t="s">
-        <v>24</v>
-      </c>
-      <c r="G13" t="s">
-        <v>5</v>
-      </c>
-      <c r="H13" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.45">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13</v>
       </c>
-      <c r="B14" s="3">
+      <c r="B14">
         <v>18</v>
       </c>
       <c r="C14" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D14" s="1">
         <v>36138</v>
@@ -910,24 +729,18 @@
         <v>21</v>
       </c>
       <c r="F14" t="s">
-        <v>15</v>
-      </c>
-      <c r="G14" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="H14" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.45">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>14</v>
       </c>
-      <c r="B15" s="5">
+      <c r="B15">
         <v>28</v>
       </c>
       <c r="C15" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D15" s="1">
         <v>35141</v>
@@ -936,24 +749,18 @@
         <v>23</v>
       </c>
       <c r="F15" t="s">
-        <v>11</v>
-      </c>
-      <c r="G15" t="s">
-        <v>5</v>
-      </c>
-      <c r="H15" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.45">
-      <c r="B16" s="4"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B16" s="3"/>
       <c r="D16" s="1"/>
       <c r="E16" s="2">
         <f>SUM(E2:E15)/14</f>
         <v>24.357142857142858</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>1</v>
       </c>
@@ -961,7 +768,7 @@
         <v>30</v>
       </c>
       <c r="C18" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D18" s="1">
         <v>34352</v>
@@ -970,16 +777,10 @@
         <v>25</v>
       </c>
       <c r="F18" t="s">
-        <v>12</v>
-      </c>
-      <c r="G18" t="s">
-        <v>5</v>
-      </c>
-      <c r="H18" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.45">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>2</v>
       </c>
@@ -987,7 +788,7 @@
         <v>31</v>
       </c>
       <c r="C19" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D19" s="1">
         <v>34856</v>
@@ -996,22 +797,16 @@
         <v>24</v>
       </c>
       <c r="F19" t="s">
-        <v>8</v>
-      </c>
-      <c r="G19" t="s">
-        <v>5</v>
-      </c>
-      <c r="H19" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.45">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="E20" s="2">
         <f>SUM(E18+E19)/2</f>
         <v>24.5</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>1</v>
       </c>
@@ -1019,7 +814,7 @@
         <v>11</v>
       </c>
       <c r="C22" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D22" s="1">
         <v>35251</v>
@@ -1028,16 +823,10 @@
         <v>23</v>
       </c>
       <c r="F22" t="s">
-        <v>16</v>
-      </c>
-      <c r="G22" t="s">
-        <v>5</v>
-      </c>
-      <c r="H22" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.45">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>2</v>
       </c>
@@ -1045,7 +834,7 @@
         <v>12</v>
       </c>
       <c r="C23" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D23" s="1">
         <v>35585</v>
@@ -1054,16 +843,10 @@
         <v>22</v>
       </c>
       <c r="F23" t="s">
-        <v>15</v>
-      </c>
-      <c r="G23" t="s">
-        <v>5</v>
-      </c>
-      <c r="H23" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.45">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>3</v>
       </c>
@@ -1071,7 +854,7 @@
         <v>13</v>
       </c>
       <c r="C24" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D24" s="1">
         <v>35737</v>
@@ -1080,16 +863,10 @@
         <v>22</v>
       </c>
       <c r="F24" t="s">
-        <v>20</v>
-      </c>
-      <c r="G24" t="s">
-        <v>5</v>
-      </c>
-      <c r="H24" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.45">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>4</v>
       </c>
@@ -1097,7 +874,7 @@
         <v>14</v>
       </c>
       <c r="C25" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D25" s="1">
         <v>35420</v>
@@ -1106,16 +883,10 @@
         <v>23</v>
       </c>
       <c r="F25" t="s">
-        <v>10</v>
-      </c>
-      <c r="G25" t="s">
-        <v>5</v>
-      </c>
-      <c r="H25" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.45">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>5</v>
       </c>
@@ -1123,7 +894,7 @@
         <v>15</v>
       </c>
       <c r="C26" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D26" s="1">
         <v>33866</v>
@@ -1132,16 +903,10 @@
         <v>27</v>
       </c>
       <c r="F26" t="s">
-        <v>8</v>
-      </c>
-      <c r="G26" t="s">
-        <v>5</v>
-      </c>
-      <c r="H26" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.45">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>6</v>
       </c>
@@ -1149,7 +914,7 @@
         <v>19</v>
       </c>
       <c r="C27" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D27" s="1">
         <v>34929</v>
@@ -1158,16 +923,10 @@
         <v>24</v>
       </c>
       <c r="F27" t="s">
-        <v>12</v>
-      </c>
-      <c r="G27" t="s">
-        <v>5</v>
-      </c>
-      <c r="H27" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.45">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>7</v>
       </c>
@@ -1175,7 +934,7 @@
         <v>20</v>
       </c>
       <c r="C28" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D28" s="1">
         <v>34611</v>
@@ -1184,16 +943,10 @@
         <v>25</v>
       </c>
       <c r="F28" t="s">
-        <v>23</v>
-      </c>
-      <c r="G28" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="H28" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.45">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>8</v>
       </c>
@@ -1201,7 +954,7 @@
         <v>21</v>
       </c>
       <c r="C29" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D29" s="1">
         <v>35302</v>
@@ -1210,16 +963,10 @@
         <v>23</v>
       </c>
       <c r="F29" t="s">
-        <v>12</v>
-      </c>
-      <c r="G29" t="s">
-        <v>5</v>
-      </c>
-      <c r="H29" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.45">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>9</v>
       </c>
@@ -1227,7 +974,7 @@
         <v>22</v>
       </c>
       <c r="C30" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D30" s="1">
         <v>36127</v>
@@ -1236,16 +983,10 @@
         <v>21</v>
       </c>
       <c r="F30" t="s">
-        <v>18</v>
-      </c>
-      <c r="G30" t="s">
-        <v>5</v>
-      </c>
-      <c r="H30" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.45">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>10</v>
       </c>
@@ -1253,7 +994,7 @@
         <v>23</v>
       </c>
       <c r="C31" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D31" s="1">
         <v>34770</v>
@@ -1262,16 +1003,10 @@
         <v>24</v>
       </c>
       <c r="F31" t="s">
-        <v>8</v>
-      </c>
-      <c r="G31" t="s">
-        <v>5</v>
-      </c>
-      <c r="H31" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.45">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>11</v>
       </c>
@@ -1279,7 +1014,7 @@
         <v>24</v>
       </c>
       <c r="C32" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D32" s="1">
         <v>35955</v>
@@ -1288,16 +1023,10 @@
         <v>21</v>
       </c>
       <c r="F32" t="s">
-        <v>12</v>
-      </c>
-      <c r="G32" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="H32" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.45">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>12</v>
       </c>
@@ -1305,7 +1034,7 @@
         <v>25</v>
       </c>
       <c r="C33" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D33" s="1">
         <v>34905</v>
@@ -1314,16 +1043,10 @@
         <v>24</v>
       </c>
       <c r="F33" t="s">
-        <v>21</v>
-      </c>
-      <c r="G33" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="H33" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.45">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>13</v>
       </c>
@@ -1331,7 +1054,7 @@
         <v>26</v>
       </c>
       <c r="C34" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D34" s="1">
         <v>35615</v>
@@ -1340,16 +1063,10 @@
         <v>22</v>
       </c>
       <c r="F34" t="s">
-        <v>17</v>
-      </c>
-      <c r="G34" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="H34" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.45">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>14</v>
       </c>
@@ -1357,7 +1074,7 @@
         <v>27</v>
       </c>
       <c r="C35" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D35" s="1">
         <v>35469</v>
@@ -1366,16 +1083,10 @@
         <v>22</v>
       </c>
       <c r="F35" t="s">
-        <v>13</v>
-      </c>
-      <c r="G35" t="s">
-        <v>5</v>
-      </c>
-      <c r="H35" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.45">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>15</v>
       </c>
@@ -1383,7 +1094,7 @@
         <v>29</v>
       </c>
       <c r="C36" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D36" s="1">
         <v>35031</v>
@@ -1392,225 +1103,35 @@
         <v>24</v>
       </c>
       <c r="F36" t="s">
-        <v>22</v>
-      </c>
-      <c r="G36" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H36" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.45">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="E37" s="2">
         <f>SUM(E22:E36)/15</f>
         <v>23.133333333333333</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="E40">
-        <v>27</v>
-      </c>
-      <c r="F40">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="E41">
-        <v>26</v>
-      </c>
-      <c r="F41">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="E42">
-        <v>28</v>
-      </c>
-      <c r="F42">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="E43">
-        <v>30</v>
-      </c>
-      <c r="F43">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="E44">
-        <v>24</v>
-      </c>
-      <c r="F44">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="E45">
-        <v>26</v>
-      </c>
-      <c r="F45">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="E46">
-        <v>23</v>
-      </c>
-      <c r="F46">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="E47">
-        <v>22</v>
-      </c>
-      <c r="F47">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="E48">
-        <v>25</v>
-      </c>
-      <c r="F48">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="49" spans="5:6" x14ac:dyDescent="0.45">
-      <c r="E49">
-        <v>20</v>
-      </c>
-      <c r="F49">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="50" spans="5:6" x14ac:dyDescent="0.45">
-      <c r="E50">
-        <v>21</v>
-      </c>
-      <c r="F50">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="51" spans="5:6" x14ac:dyDescent="0.45">
-      <c r="E51">
-        <v>25</v>
-      </c>
-      <c r="F51">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="52" spans="5:6" x14ac:dyDescent="0.45">
-      <c r="E52">
-        <v>21</v>
-      </c>
-      <c r="F52">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="53" spans="5:6" x14ac:dyDescent="0.45">
-      <c r="E53">
-        <v>23</v>
-      </c>
-      <c r="F53">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="54" spans="5:6" x14ac:dyDescent="0.45">
-      <c r="E54">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="55" spans="5:6" x14ac:dyDescent="0.45">
-      <c r="E55">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="56" spans="5:6" x14ac:dyDescent="0.45">
-      <c r="E56">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="57" spans="5:6" x14ac:dyDescent="0.45">
-      <c r="E57">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="58" spans="5:6" x14ac:dyDescent="0.45">
-      <c r="E58">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="59" spans="5:6" x14ac:dyDescent="0.45">
-      <c r="E59">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="60" spans="5:6" x14ac:dyDescent="0.45">
-      <c r="E60">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="61" spans="5:6" x14ac:dyDescent="0.45">
-      <c r="E61">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="62" spans="5:6" x14ac:dyDescent="0.45">
-      <c r="E62">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="63" spans="5:6" x14ac:dyDescent="0.45">
-      <c r="E63">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="64" spans="5:6" x14ac:dyDescent="0.45">
-      <c r="E64">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="65" spans="5:6" x14ac:dyDescent="0.45">
-      <c r="E65">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="66" spans="5:6" x14ac:dyDescent="0.45">
-      <c r="E66">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="67" spans="5:6" x14ac:dyDescent="0.45">
-      <c r="E67">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="68" spans="5:6" x14ac:dyDescent="0.45">
-      <c r="E68">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="69" spans="5:6" x14ac:dyDescent="0.45">
-      <c r="E69">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="70" spans="5:6" x14ac:dyDescent="0.45">
-      <c r="E70" s="2">
-        <f>AVERAGE(E40:E69)</f>
-        <v>23.766666666666666</v>
-      </c>
-      <c r="F70">
-        <f>_xlfn.STDEV.P(E40:E69)</f>
-        <v>2.2903177848402509</v>
+    <row r="38" spans="1:6" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="E38" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F38" s="6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E39" s="4">
+        <f>AVERAGE(E2:E15,E18:E19,E22:E36)</f>
+        <v>23.774193548387096</v>
+      </c>
+      <c r="F39" s="5">
+        <f>_xlfn.STDEV.P(E2:E15,E18:E19,E22:E36)</f>
+        <v>2.2534515092352239</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="B1:I1">
+  <autoFilter ref="B1:H1">
     <sortState ref="B2:I20">
       <sortCondition ref="B1:B20"/>
     </sortState>
